--- a/biology/Biochimie/Adénosine_monophosphate/Adénosine_monophosphate.xlsx
+++ b/biology/Biochimie/Adénosine_monophosphate/Adénosine_monophosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_monophosphate</t>
+          <t>Adénosine_monophosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’adénosine monophosphate (AMP), également appelée acide 5'-adénylique, est un ribonucléotide constitué de résidus d'adénine, une base nucléique, et de ribose estérifié par un groupe phosphate. Avec l'uridine monophosphate (UMP), la guanosine monophosphate (GMP) et la cytidine monophosphate (CMP), elle est l'un des monomères constituant l'ARN, où l'adénine peut se lier à l'uracile par deux liaisons hydrogène.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_monophosphate</t>
+          <t>Adénosine_monophosphate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Production et dégradation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AMP peut être produite lors de la synthèse de l'adénosine triphosphate (ATP) par l'enzyme adénylate kinase, par combinaison de deux molécules d'adénosine diphosphate (ADP) :
 2 ADP  
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_monophosphate</t>
+          <t>Adénosine_monophosphate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>AMPc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AMP existe aussi sous la forme d'une structure cyclique appelée adénosine monophosphate cyclique (AMPc). Dans certaines cellules, l'enzyme adénylate cyclase fabrique l'AMPc à partir de l'ATP, réaction en général régulée par des hormones comme l'adrénaline ou le glucagon. L'AMPc joue un rôle important dans la signalisation intracellulaire.il joue le rôle de second messager.
 </t>
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_monophosphate</t>
+          <t>Adénosine_monophosphate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,9 +608,11 @@
           <t>Masqueur du goût amer</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AMP a été la première molécule identifiée à avoir la capacité de masquer le goût amer sur la langue, ce qui donne la sensation d'un goût plus « sucré ». En effet l'AMP bloquerait la protéine G responsable de la transmission du goût amer[5]. Cette propriété rend cette molécule intéressante pour d'éventuelles applications dans l'industrie-agroalimentaire. La Food and Drug Administration a par ailleurs autorisé l'AMP comme additif « Bitter Blocker » dans la nourriture[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMP a été la première molécule identifiée à avoir la capacité de masquer le goût amer sur la langue, ce qui donne la sensation d'un goût plus « sucré ». En effet l'AMP bloquerait la protéine G responsable de la transmission du goût amer. Cette propriété rend cette molécule intéressante pour d'éventuelles applications dans l'industrie-agroalimentaire. La Food and Drug Administration a par ailleurs autorisé l'AMP comme additif « Bitter Blocker » dans la nourriture.
 </t>
         </is>
       </c>
